--- a/joint-0dB.xlsx
+++ b/joint-0dB.xlsx
@@ -289,14 +289,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -998,7 +999,35 @@
         <v>0.617575645446777</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D20)</f>
+        <v>0.713847117794486</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">AVERAGE(E2:E20)</f>
+        <v>0.709430481798903</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">AVERAGE(F2:F20)</f>
+        <v>0.820230257072362</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">AVERAGE(G2:G20)</f>
+        <v>1.20878146196666</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">AVERAGE(H2:H20)</f>
+        <v>5.43293297880201</v>
+      </c>
+      <c r="I21" s="0" t="e">
+        <f aca="false">AVERAGE(I2:I20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">AVERAGE(J2:J20)</f>
+        <v>5.43293297880201</v>
+      </c>
       <c r="K21" s="0" t="n">
         <f aca="false">AVERAGE(K2:K20)</f>
         <v>0.663621720514799</v>
@@ -1023,7 +1052,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1561,14 +1590,15 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -1815,7 +1845,35 @@
         <v>0.492260992527008</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D7 )</f>
+        <v>0.892592592592592</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">AVERAGE(E2:E7 )</f>
+        <v>0.892592592592592</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">AVERAGE(F2:F7 )</f>
+        <v>0.96331569664903</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">AVERAGE(G2:G7 )</f>
+        <v>1.08562519152959</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">AVERAGE(H2:H7 )</f>
+        <v>2.20030546670502</v>
+      </c>
+      <c r="I8" s="0" t="e">
+        <f aca="false">AVERAGE(I2:I7 )</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">AVERAGE(J2:J7 )</f>
+        <v>2.20030546670502</v>
+      </c>
       <c r="K8" s="0" t="n">
         <f aca="false">AVERAGE(K2:K7 )</f>
         <v>0.576941003402074</v>
